--- a/public/listado/listado_moldes.xlsx
+++ b/public/listado/listado_moldes.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\faca2\public\listado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Gines\Desktop\archivospacasa\listado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C780FF0-EEF4-44E4-B7A8-7E7026E3D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="11580" windowHeight="5730" tabRatio="438"/>
+    <workbookView xWindow="3720" yWindow="1305" windowWidth="22770" windowHeight="11385" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$6:$C$683</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$6:$C$682</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="644">
   <si>
     <t>TAPA  ROUGE  COLORETE  4 Unid.  (ANTIGUO)</t>
   </si>
@@ -1825,9 +1826,6 @@
     <t>placa version 150cc/200cc</t>
   </si>
   <si>
-    <t>1905,0,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CUBILETE  50 ml SISLEY( 4 unidades) amb obturador </t>
   </si>
   <si>
@@ -1892,12 +1890,132 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0246</t>
+  </si>
+  <si>
+    <t>0250</t>
+  </si>
+  <si>
+    <t>0266</t>
+  </si>
+  <si>
+    <t>0388</t>
+  </si>
+  <si>
+    <t>0419</t>
+  </si>
+  <si>
+    <t>0420</t>
+  </si>
+  <si>
+    <t>0459</t>
+  </si>
+  <si>
+    <t>0475</t>
+  </si>
+  <si>
+    <t>0548</t>
+  </si>
+  <si>
+    <t>0592</t>
+  </si>
+  <si>
+    <t>0639</t>
+  </si>
+  <si>
+    <t>0644</t>
+  </si>
+  <si>
+    <t>0669</t>
+  </si>
+  <si>
+    <t>0754</t>
+  </si>
+  <si>
+    <t>0819</t>
+  </si>
+  <si>
+    <t>0841</t>
+  </si>
+  <si>
+    <t>0842</t>
+  </si>
+  <si>
+    <t>0843</t>
+  </si>
+  <si>
+    <t>0844</t>
+  </si>
+  <si>
+    <t>0848</t>
+  </si>
+  <si>
+    <t>0862</t>
+  </si>
+  <si>
+    <t>0870</t>
+  </si>
+  <si>
+    <t>0883</t>
+  </si>
+  <si>
+    <t>0892</t>
+  </si>
+  <si>
+    <t>0893</t>
+  </si>
+  <si>
+    <t>0919</t>
+  </si>
+  <si>
+    <t>0985</t>
+  </si>
+  <si>
+    <t>0988</t>
+  </si>
+  <si>
+    <t>098801</t>
+  </si>
+  <si>
+    <t>098802</t>
+  </si>
+  <si>
+    <t>0994</t>
+  </si>
+  <si>
+    <t>0997</t>
+  </si>
+  <si>
+    <t>099701</t>
+  </si>
+  <si>
+    <t>0998</t>
+  </si>
+  <si>
+    <t>099801</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2153,7 +2271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2261,6 +2379,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,7 +2420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1505" name="Imagen 1"/>
+        <xdr:cNvPr id="1505" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1050000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2722,11 +2853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G975"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2773,16 +2904,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>1</v>
+      <c r="A7" s="35" t="s">
+        <v>604</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>11</v>
+      <c r="A8" s="35" t="s">
+        <v>605</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>182</v>
@@ -2792,8 +2923,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>12</v>
+      <c r="A9" s="35" t="s">
+        <v>606</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>103</v>
@@ -2803,8 +2934,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>81</v>
+      <c r="A10" s="35" t="s">
+        <v>607</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>104</v>
@@ -2814,8 +2945,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>93</v>
+      <c r="A11" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="17">
@@ -2823,8 +2954,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>246</v>
+      <c r="A12" s="35" t="s">
+        <v>609</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>105</v>
@@ -2834,8 +2965,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>250</v>
+      <c r="A13" s="35" t="s">
+        <v>610</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="15">
@@ -2843,8 +2974,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>266</v>
+      <c r="A14" s="35" t="s">
+        <v>611</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17">
@@ -2854,8 +2985,8 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>388</v>
+      <c r="A15" s="35" t="s">
+        <v>612</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="15">
@@ -2865,8 +2996,8 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>419</v>
+      <c r="A16" s="35" t="s">
+        <v>613</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="15">
@@ -2876,8 +3007,8 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>420</v>
+      <c r="A17" s="35" t="s">
+        <v>614</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17">
@@ -2887,8 +3018,8 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
-        <v>459</v>
+      <c r="A18" s="35" t="s">
+        <v>615</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
@@ -2896,8 +3027,8 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
-        <v>475</v>
+      <c r="A19" s="35" t="s">
+        <v>616</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>106</v>
@@ -2909,8 +3040,8 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>548</v>
+      <c r="A20" s="35" t="s">
+        <v>617</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>107</v>
@@ -2922,8 +3053,8 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>592</v>
+      <c r="A21" s="35" t="s">
+        <v>618</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>190</v>
@@ -2935,8 +3066,8 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
-        <v>639</v>
+      <c r="A22" s="35" t="s">
+        <v>619</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>108</v>
@@ -2948,8 +3079,8 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
-        <v>644</v>
+      <c r="A23" s="35" t="s">
+        <v>620</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="15">
@@ -2959,8 +3090,8 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
-        <v>669</v>
+      <c r="A24" s="35" t="s">
+        <v>621</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="15">
@@ -2970,8 +3101,8 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
-        <v>754</v>
+      <c r="A25" s="35" t="s">
+        <v>622</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>183</v>
@@ -2983,8 +3114,8 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
-        <v>819</v>
+      <c r="A26" s="35" t="s">
+        <v>623</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>184</v>
@@ -2996,8 +3127,8 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
-        <v>841</v>
+      <c r="A27" s="35" t="s">
+        <v>624</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>142</v>
@@ -3009,8 +3140,8 @@
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
-        <v>842</v>
+      <c r="A28" s="35" t="s">
+        <v>625</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>155</v>
@@ -3022,8 +3153,8 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
-        <v>843</v>
+      <c r="A29" s="35" t="s">
+        <v>626</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
@@ -3033,8 +3164,8 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
-        <v>844</v>
+      <c r="A30" s="35" t="s">
+        <v>627</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="15">
@@ -3044,8 +3175,8 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
-        <v>848</v>
+      <c r="A31" s="35" t="s">
+        <v>628</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>191</v>
@@ -3057,8 +3188,8 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
-        <v>862</v>
+      <c r="A32" s="35" t="s">
+        <v>629</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>192</v>
@@ -3070,8 +3201,8 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
-        <v>870</v>
+      <c r="A33" s="35" t="s">
+        <v>630</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>193</v>
@@ -3083,8 +3214,8 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
-        <v>883</v>
+      <c r="A34" s="35" t="s">
+        <v>631</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>194</v>
@@ -3096,8 +3227,8 @@
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
-        <v>892</v>
+      <c r="A35" s="35" t="s">
+        <v>632</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>195</v>
@@ -3109,8 +3240,8 @@
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <v>893</v>
+      <c r="A36" s="35" t="s">
+        <v>633</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>0</v>
@@ -3122,8 +3253,8 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
-        <v>919</v>
+      <c r="A37" s="35" t="s">
+        <v>634</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>185</v>
@@ -3135,8 +3266,8 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
-        <v>985</v>
+      <c r="A38" s="35" t="s">
+        <v>635</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="15">
@@ -3146,8 +3277,8 @@
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
-        <v>988</v>
+      <c r="A39" s="35" t="s">
+        <v>636</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>186</v>
@@ -3159,8 +3290,8 @@
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
-        <v>988.1</v>
+      <c r="A40" s="35" t="s">
+        <v>637</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>187</v>
@@ -3172,8 +3303,8 @@
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
-        <v>988.2</v>
+      <c r="A41" s="35" t="s">
+        <v>638</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>188</v>
@@ -3185,8 +3316,8 @@
       <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
-        <v>994</v>
+      <c r="A42" s="35" t="s">
+        <v>639</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="15">
@@ -3196,8 +3327,8 @@
       <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
-        <v>997</v>
+      <c r="A43" s="35" t="s">
+        <v>640</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>189</v>
@@ -3209,8 +3340,8 @@
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
-        <v>997.1</v>
+      <c r="A44" s="35" t="s">
+        <v>641</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>196</v>
@@ -3222,8 +3353,8 @@
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
-        <v>998</v>
+      <c r="A45" s="35" t="s">
+        <v>642</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>197</v>
@@ -3235,8 +3366,8 @@
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
-        <v>998.1</v>
+      <c r="A46" s="35" t="s">
+        <v>643</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>198</v>
@@ -3275,7 +3406,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
-        <v>1014.1</v>
+        <v>101401</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>165</v>
@@ -3288,7 +3419,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
-        <v>1014.2</v>
+        <v>101402</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>166</v>
@@ -3364,7 +3495,7 @@
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
-        <v>1035.0999999999999</v>
+        <v>103501</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>3</v>
@@ -3377,7 +3508,7 @@
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
-        <v>1035.2</v>
+        <v>103502</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>201</v>
@@ -3455,7 +3586,7 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
-        <v>1068.0999999999999</v>
+        <v>106801</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>207</v>
@@ -3468,7 +3599,7 @@
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
-        <v>1068.2</v>
+        <v>106802</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>208</v>
@@ -3481,7 +3612,7 @@
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
-        <v>1090.0999999999999</v>
+        <v>109001</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="15">
@@ -3505,7 +3636,7 @@
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
-        <v>1099.0999999999999</v>
+        <v>109901</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>210</v>
@@ -3518,7 +3649,7 @@
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
-        <v>1099.2</v>
+        <v>109902</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>211</v>
@@ -3579,7 +3710,7 @@
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
-        <v>1108.0999999999999</v>
+        <v>110801</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>167</v>
@@ -3592,7 +3723,7 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
-        <v>1108.2</v>
+        <v>110802</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>215</v>
@@ -3605,7 +3736,7 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
-        <v>1108.22</v>
+        <v>110802</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>168</v>
@@ -3631,7 +3762,7 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
-        <v>1113.0999999999999</v>
+        <v>111301</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>169</v>
@@ -3644,7 +3775,7 @@
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
-        <v>1113.3</v>
+        <v>111303</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>4</v>
@@ -3657,7 +3788,7 @@
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
-        <v>1113.4000000000001</v>
+        <v>111304</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>217</v>
@@ -3683,7 +3814,7 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
-        <v>1115.0999999999999</v>
+        <v>111501</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>218</v>
@@ -3696,7 +3827,7 @@
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
-        <v>1115.2</v>
+        <v>111502</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>219</v>
@@ -3709,7 +3840,7 @@
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
-        <v>1115.4000000000001</v>
+        <v>111504</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>220</v>
@@ -3722,7 +3853,7 @@
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
-        <v>1116</v>
+        <v>111603</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>170</v>
@@ -3748,7 +3879,7 @@
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
-        <v>1116.01</v>
+        <v>11160001</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>568</v>
@@ -3761,7 +3892,7 @@
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
-        <v>1116.0999999999999</v>
+        <v>111601</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>222</v>
@@ -3774,7 +3905,7 @@
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
-        <v>1116.2</v>
+        <v>111602</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>223</v>
@@ -3787,7 +3918,7 @@
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
-        <v>1116.4000000000001</v>
+        <v>111604</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>224</v>
@@ -3800,7 +3931,7 @@
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
-        <v>1116.5</v>
+        <v>111605</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>225</v>
@@ -3826,7 +3957,7 @@
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
-        <v>1119.0999999999999</v>
+        <v>111901</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>171</v>
@@ -3941,7 +4072,7 @@
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
-        <v>1160.0999999999999</v>
+        <v>116001</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>172</v>
@@ -3967,7 +4098,7 @@
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
-        <v>1162.0999999999999</v>
+        <v>116201</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>173</v>
@@ -4058,7 +4189,7 @@
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
-        <v>1185.0999999999999</v>
+        <v>118501</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>237</v>
@@ -4123,7 +4254,7 @@
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15">
-        <v>1196.0999999999999</v>
+        <v>119601</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>174</v>
@@ -4136,7 +4267,7 @@
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
-        <v>1196.2</v>
+        <v>119602</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>242</v>
@@ -4225,7 +4356,7 @@
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15">
-        <v>1207.2</v>
+        <v>120702</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>175</v>
@@ -4251,7 +4382,7 @@
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15">
-        <v>1209.0999999999999</v>
+        <v>120901</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>573</v>
@@ -4564,7 +4695,7 @@
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
-        <v>1279.0999999999999</v>
+        <v>127901</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>267</v>
@@ -4625,7 +4756,7 @@
         <v>272</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4717,1089 +4848,1089 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17">
-        <v>1304.0999999999999</v>
+      <c r="A166" s="15">
+        <v>130401</v>
       </c>
       <c r="B166" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C166" s="17">
-        <v>566</v>
+      <c r="C166" s="15">
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15">
-        <v>1304.0999999999999</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>280</v>
+        <v>1305</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="C167" s="15">
-        <v>567</v>
+        <v>537</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="15">
-        <v>1305</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C168" s="15">
-        <v>537</v>
+      <c r="A168" s="17">
+        <v>130501</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" s="17">
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="17">
-        <v>1305.0999999999999</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C169" s="17">
-        <v>479</v>
+      <c r="A169" s="15">
+        <v>1306</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" s="15">
+        <v>574</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="15">
-        <v>1306</v>
+        <v>130601</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C170" s="15">
-        <v>574</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="15">
-        <v>1306.0999999999999</v>
+        <v>130602</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C171" s="15">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="15">
-        <v>1306.2</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C172" s="15">
-        <v>529</v>
+      <c r="A172" s="17">
+        <v>1308</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C172" s="17">
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="17">
-        <v>1308</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>285</v>
+      <c r="A173" s="15">
+        <v>1310</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="C173" s="17">
-        <v>445</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C174" s="17">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C175" s="17">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C176" s="17">
-        <v>86</v>
+        <v>289</v>
+      </c>
+      <c r="C176" s="15">
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C177" s="15">
-        <v>281</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="15">
-        <v>1317</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C178" s="15">
-        <v>213</v>
+      <c r="A178" s="17">
+        <v>1318</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C178" s="17">
+        <v>435</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="17">
-        <v>1318</v>
-      </c>
-      <c r="B179" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C179" s="17">
-        <v>435</v>
+      <c r="A179" s="15">
+        <v>1324</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C179" s="15">
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C180" s="15">
-        <v>277</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C181" s="15">
-        <v>392</v>
+        <v>295</v>
+      </c>
+      <c r="C181" s="17">
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15">
-        <v>1330</v>
+        <v>133001</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C182" s="17">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="15">
-        <v>1330.1</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>294</v>
+      <c r="A183" s="17">
+        <v>1334</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>296</v>
       </c>
       <c r="C183" s="17">
-        <v>177</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="17">
-        <v>1334</v>
-      </c>
-      <c r="B184" s="25" t="s">
-        <v>296</v>
+      <c r="A184" s="15">
+        <v>1336</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="C184" s="17">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="15">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C185" s="17">
-        <v>80</v>
+        <v>156</v>
+      </c>
+      <c r="C185" s="15">
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="C186" s="15">
-        <v>512</v>
+        <v>260</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="15">
-        <v>1341</v>
+        <v>1350</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="C187" s="15">
-        <v>260</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="15">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="15">
-        <v>568</v>
+        <v>299</v>
+      </c>
+      <c r="C188" s="17">
+        <v>145</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="15">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C189" s="17">
-        <v>145</v>
+        <v>300</v>
+      </c>
+      <c r="C189" s="15">
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="15">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C190" s="15">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="15">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="C191" s="15">
-        <v>302</v>
+        <v>511</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="15">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C192" s="15">
-        <v>511</v>
+        <v>302</v>
+      </c>
+      <c r="C192" s="17">
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="15">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C193" s="17">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="15">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C194" s="17">
-        <v>156</v>
+        <v>304</v>
+      </c>
+      <c r="C194" s="15">
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="15">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C195" s="15">
-        <v>402</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="15">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C196" s="15">
-        <v>110</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="15">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C197" s="15">
-        <v>397</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="15">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C198" s="15">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="15">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C199" s="15">
-        <v>3</v>
+        <v>309</v>
+      </c>
+      <c r="C199" s="17">
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="15">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C200" s="17">
-        <v>64</v>
+        <v>310</v>
+      </c>
+      <c r="C200" s="15">
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="15">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C201" s="15">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="15">
-        <v>1384</v>
+        <v>138401</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C202" s="15">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="15">
-        <v>1384.1</v>
+        <v>1385</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C203" s="15">
-        <v>297</v>
+        <v>313</v>
+      </c>
+      <c r="C203" s="17">
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="15">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C204" s="17">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="15">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C205" s="17">
-        <v>151</v>
+        <v>315</v>
+      </c>
+      <c r="C205" s="15">
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="15">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C206" s="15">
-        <v>396</v>
+        <v>316</v>
+      </c>
+      <c r="C206" s="17">
+        <v>114</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="15">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C207" s="17">
-        <v>114</v>
+        <v>317</v>
+      </c>
+      <c r="C207" s="15">
+        <v>389</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="15">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C208" s="15">
-        <v>389</v>
+        <v>318</v>
+      </c>
+      <c r="C208" s="17">
+        <v>113</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="15">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C209" s="17">
-        <v>113</v>
+        <v>319</v>
+      </c>
+      <c r="C209" s="15">
+        <v>391</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="15">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C210" s="15">
-        <v>391</v>
+        <v>320</v>
+      </c>
+      <c r="C210" s="17">
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="15">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C211" s="17">
-        <v>122</v>
+        <v>321</v>
+      </c>
+      <c r="C211" s="15">
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="15">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C212" s="15">
-        <v>272</v>
+        <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="15">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>322</v>
+        <v>145</v>
       </c>
       <c r="C213" s="15">
-        <v>407</v>
+        <v>538</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="15">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="C214" s="15">
-        <v>538</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="15">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C215" s="15">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="15">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C216" s="15">
-        <v>239</v>
+        <v>313</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="15">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C217" s="15">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="15">
-        <v>1421</v>
-      </c>
-      <c r="B218" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C218" s="15">
-        <v>273</v>
+      <c r="A218" s="17">
+        <v>1422</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C218" s="17">
+        <v>447</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="17">
-        <v>1422</v>
-      </c>
-      <c r="B219" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C219" s="17">
-        <v>447</v>
+      <c r="A219" s="15">
+        <v>1424</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C219" s="15">
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="15">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C220" s="15">
-        <v>290</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="15">
-        <v>1429</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C221" s="15">
-        <v>9</v>
+        <v>1430</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C221" s="17">
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="15">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C222" s="17">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="15">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C223" s="17">
-        <v>61</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="15">
-        <v>1433</v>
+        <v>143303</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C224" s="17">
-        <v>461</v>
+        <v>333</v>
+      </c>
+      <c r="C224" s="15">
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="15">
-        <v>1433.3</v>
-      </c>
-      <c r="B225" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C225" s="15">
-        <v>241</v>
+      <c r="A225" s="17">
+        <v>1435</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C225" s="17">
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="17">
-        <v>1435</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>334</v>
+      <c r="A226" s="15">
+        <v>143503</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="C226" s="17">
-        <v>469</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="15">
-        <v>1435.3</v>
+        <v>1436</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C227" s="17">
-        <v>57</v>
+        <v>121</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="15">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C228" s="17">
-        <v>121</v>
+        <v>337</v>
+      </c>
+      <c r="C228" s="15">
+        <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="15">
-        <v>1437</v>
+        <v>143701</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C229" s="15">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="15">
-        <v>1437.1</v>
+        <v>1439</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C230" s="15">
-        <v>375</v>
+        <v>339</v>
+      </c>
+      <c r="C230" s="17">
+        <v>161</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="15">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C231" s="17">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C231" s="15">
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="15">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C232" s="15">
-        <v>222</v>
+        <v>331</v>
+      </c>
+      <c r="C232" s="17">
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="15">
-        <v>1443</v>
+        <v>144301</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C233" s="17">
-        <v>325</v>
+        <v>340</v>
+      </c>
+      <c r="C233" s="15">
+        <v>267</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="15">
-        <v>1443.1</v>
+        <v>1447</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C234" s="15">
-        <v>267</v>
+        <v>341</v>
+      </c>
+      <c r="C234" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="15">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C235" s="17">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="C235" s="15">
+        <v>536</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="15">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C236" s="15">
-        <v>536</v>
+        <v>342</v>
+      </c>
+      <c r="C236" s="17">
+        <v>205</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="15">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C237" s="17">
-        <v>205</v>
+        <v>343</v>
+      </c>
+      <c r="C237" s="15">
+        <v>308</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="15">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C238" s="15">
-        <v>308</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="15">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C239" s="15">
-        <v>387</v>
+        <v>345</v>
+      </c>
+      <c r="C239" s="17">
+        <v>58</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="15">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C240" s="17">
-        <v>58</v>
+        <v>346</v>
+      </c>
+      <c r="C240" s="15">
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="15">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C241" s="15">
-        <v>327</v>
+        <v>347</v>
+      </c>
+      <c r="C241" s="17">
+        <v>92</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="15">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C242" s="17">
-        <v>92</v>
+        <v>140</v>
+      </c>
+      <c r="C242" s="15">
+        <v>589</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="15">
-        <v>1461</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C243" s="15">
-        <v>589</v>
+      <c r="A243" s="17">
+        <v>1463</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C243" s="17">
+        <v>474</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C244" s="17">
-        <v>474</v>
+        <v>355</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="17">
-        <v>1464</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>350</v>
+      <c r="A245" s="15">
+        <v>146401</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="C245" s="17">
-        <v>355</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="15">
-        <v>1464.1</v>
+        <v>146402</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C246" s="17">
-        <v>54</v>
+        <v>351</v>
+      </c>
+      <c r="C246" s="15">
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="15">
-        <v>1464.2</v>
+        <v>1467</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C247" s="15">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="15">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C248" s="15">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="15">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C249" s="15">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="15">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C250" s="15">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="15">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C251" s="15">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="15">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C252" s="15">
-        <v>278</v>
+        <v>357</v>
+      </c>
+      <c r="C252" s="17">
+        <v>43</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="15">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C253" s="17">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="15">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C254" s="17">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="15">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C255" s="17">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="15">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C256" s="17">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="15">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C257" s="17">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="15">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C258" s="17">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="15">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C259" s="17">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="15">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C260" s="17">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="15">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C261" s="17">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="15">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C262" s="17">
-        <v>178</v>
+        <v>367</v>
+      </c>
+      <c r="C262" s="15">
+        <v>464</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="15">
-        <v>1494</v>
+        <v>149401</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C263" s="15">
-        <v>464</v>
+        <v>521</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="15">
-        <v>1494.1</v>
+        <v>14940101</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C264" s="15">
         <v>521</v>
@@ -5807,10 +5938,10 @@
     </row>
     <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="15">
-        <v>1494.11</v>
+        <v>14940102</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C265" s="15">
         <v>521</v>
@@ -5818,21 +5949,21 @@
     </row>
     <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="15">
-        <v>1494.12</v>
+        <v>1495</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C266" s="15">
-        <v>521</v>
+        <v>650</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="15">
-        <v>1495</v>
+        <v>149501</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C267" s="15">
         <v>650</v>
@@ -5840,10 +5971,10 @@
     </row>
     <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="15">
-        <v>1495.01</v>
+        <v>149502</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C268" s="15">
         <v>650</v>
@@ -5851,54 +5982,54 @@
     </row>
     <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="15">
-        <v>1495.02</v>
+        <v>1496</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="C269" s="15">
-        <v>650</v>
+        <v>374</v>
+      </c>
+      <c r="C269" s="17">
+        <v>181</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="15">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C270" s="17">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="15">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C271" s="17">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="15">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C272" s="17">
-        <v>162</v>
+        <v>377</v>
+      </c>
+      <c r="C272" s="15">
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="15">
-        <v>1499</v>
+        <v>149901</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C273" s="15">
         <v>357</v>
@@ -5906,167 +6037,167 @@
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="15">
-        <v>1499.01</v>
+        <v>1500</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C274" s="15">
-        <v>357</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="15">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C275" s="15">
-        <v>296</v>
+        <v>380</v>
+      </c>
+      <c r="C275" s="17">
+        <v>155</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="15">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C276" s="17">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="15">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C277" s="17">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="15">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="C278" s="17">
-        <v>163</v>
+        <v>383</v>
+      </c>
+      <c r="C278" s="15">
+        <v>223</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="15">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C279" s="15">
-        <v>223</v>
+        <v>384</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="15">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B280" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>588</v>
+        <v>178</v>
+      </c>
+      <c r="C280" s="15">
+        <v>428</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="15">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
       <c r="C281" s="15">
-        <v>428</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="15">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B282" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C282" s="15">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="15">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C283" s="15">
-        <v>284</v>
+        <v>395</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="15">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C284" s="15">
-        <v>395</v>
+        <v>250</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="15">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C285" s="15">
-        <v>250</v>
+        <v>389</v>
+      </c>
+      <c r="C285" s="17">
+        <v>164</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="15">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C286" s="17">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="15">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="C287" s="17">
-        <v>189</v>
+        <v>392</v>
+      </c>
+      <c r="C287" s="15">
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="15">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>392</v>
+        <v>577</v>
       </c>
       <c r="C288" s="15">
-        <v>303</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6074,249 +6205,249 @@
         <v>1522</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>577</v>
+        <v>391</v>
       </c>
       <c r="C289" s="15">
-        <v>85</v>
+        <v>274</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="15">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C290" s="15">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="15">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C291" s="15">
-        <v>255</v>
+        <v>385</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="15">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C292" s="15">
-        <v>385</v>
+        <v>395</v>
+      </c>
+      <c r="C292" s="17">
+        <v>194</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="15">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C293" s="17">
-        <v>194</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="15">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C294" s="17">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C295" s="17">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C296" s="17">
-        <v>190</v>
+        <v>399</v>
+      </c>
+      <c r="C296" s="15">
+        <v>248</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="15">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C297" s="15">
-        <v>248</v>
+        <v>400</v>
+      </c>
+      <c r="C297" s="17">
+        <v>116</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="15">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C298" s="17">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="15">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C299" s="17">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="15">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C300" s="17">
-        <v>111</v>
+        <v>403</v>
+      </c>
+      <c r="C300" s="15">
+        <v>247</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C301" s="15">
-        <v>247</v>
+        <v>358</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="15">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C302" s="15">
-        <v>358</v>
+        <v>246</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="15">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C303" s="15">
-        <v>246</v>
+        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="15">
-        <v>1540</v>
+        <v>154001</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C304" s="15">
-        <v>634</v>
+        <v>412</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="15">
-        <v>1540.01</v>
+        <v>1541</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C305" s="15">
-        <v>412</v>
+        <v>410</v>
+      </c>
+      <c r="C305" s="17">
+        <v>184</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="15">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C306" s="17">
-        <v>184</v>
+        <v>408</v>
+      </c>
+      <c r="C306" s="15">
+        <v>399</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="15">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C307" s="15">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="15">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C308" s="15">
-        <v>378</v>
+        <v>153</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="15">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C309" s="15">
-        <v>153</v>
+        <v>283</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="15">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C310" s="15">
-        <v>283</v>
+        <v>142</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="15">
-        <v>1551</v>
+        <v>155101</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C311" s="15">
         <v>142</v>
@@ -6324,426 +6455,426 @@
     </row>
     <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="15">
-        <v>1551.01</v>
+        <v>155101</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C312" s="15">
-        <v>142</v>
+        <v>497</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="15">
-        <v>1551.1</v>
+        <v>1552</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C313" s="15">
-        <v>497</v>
+        <v>416</v>
+      </c>
+      <c r="C313" s="17">
+        <v>203</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="15">
-        <v>1552</v>
+        <v>155201</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C314" s="17">
         <v>203</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="15">
-        <v>1552.01</v>
-      </c>
-      <c r="B315" s="16" t="s">
-        <v>417</v>
+      <c r="A315" s="17">
+        <v>1554</v>
+      </c>
+      <c r="B315" s="18" t="s">
+        <v>418</v>
       </c>
       <c r="C315" s="17">
-        <v>203</v>
+        <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="17">
-        <v>1554</v>
-      </c>
-      <c r="B316" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="C316" s="17">
-        <v>466</v>
+      <c r="A316" s="15">
+        <v>1555</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C316" s="15">
+        <v>411</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="15">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="C317" s="15">
-        <v>411</v>
+        <v>420</v>
+      </c>
+      <c r="C317" s="15" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="15">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="C318" s="17">
+        <v>131</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="15">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C319" s="17">
-        <v>131</v>
+        <v>423</v>
+      </c>
+      <c r="C319" s="15">
+        <v>285</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="15">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C320" s="15">
-        <v>285</v>
+        <v>424</v>
+      </c>
+      <c r="C320" s="17">
+        <v>132</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="15">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C321" s="17">
-        <v>132</v>
+        <v>425</v>
+      </c>
+      <c r="C321" s="15">
+        <v>404</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="15">
-        <v>1564</v>
-      </c>
-      <c r="B322" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C322" s="15">
-        <v>404</v>
+      <c r="A322" s="17">
+        <v>1567</v>
+      </c>
+      <c r="B322" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C322" s="17">
+        <v>466</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="17">
-        <v>1567</v>
+        <v>156701</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>164</v>
+        <v>426</v>
       </c>
       <c r="C323" s="17">
-        <v>466</v>
+        <v>595</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="17">
-        <v>1567.1</v>
-      </c>
-      <c r="B324" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="C324" s="17">
-        <v>595</v>
+      <c r="A324" s="15">
+        <v>1570</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C324" s="15">
+        <v>238</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="15">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C325" s="15">
-        <v>238</v>
+        <v>651</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="15">
-        <v>1572</v>
+        <v>157201</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C326" s="15">
         <v>651</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="15">
-        <v>1572.01</v>
-      </c>
-      <c r="B327" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="C327" s="15">
-        <v>651</v>
+      <c r="A327" s="17">
+        <v>1575</v>
+      </c>
+      <c r="B327" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C327" s="17">
+        <v>478</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="17">
-        <v>1575</v>
-      </c>
-      <c r="B328" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="C328" s="17">
-        <v>478</v>
+      <c r="A328" s="15">
+        <v>1577</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C328" s="15">
+        <v>596</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="15">
-        <v>1577</v>
+        <v>157701</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>431</v>
+        <v>565</v>
       </c>
       <c r="C329" s="15">
-        <v>596</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="15">
-        <v>1577.01</v>
+        <v>1578</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>565</v>
+        <v>432</v>
       </c>
       <c r="C330" s="15">
-        <v>100</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="15">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C331" s="15">
-        <v>265</v>
+        <v>433</v>
+      </c>
+      <c r="C331" s="17">
+        <v>188</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="15">
-        <v>1579</v>
-      </c>
-      <c r="B332" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="C332" s="17">
-        <v>188</v>
+      <c r="A332" s="17">
+        <v>1580</v>
+      </c>
+      <c r="B332" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="17">
-        <v>1580</v>
+        <v>158001</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="C333" s="17" t="s">
-        <v>604</v>
+        <v>435</v>
+      </c>
+      <c r="C333" s="17">
+        <v>591</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="17">
-        <v>1580.01</v>
-      </c>
-      <c r="B334" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="C334" s="17">
-        <v>591</v>
+      <c r="A334" s="15">
+        <v>1583</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C334" s="15">
+        <v>311</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="15">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="C335" s="15">
-        <v>311</v>
+        <v>438</v>
+      </c>
+      <c r="C335" s="17">
+        <v>185</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="15">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C336" s="17">
-        <v>185</v>
+        <v>45</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="15">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C337" s="17">
-        <v>45</v>
+        <v>182</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="15">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="C338" s="17">
-        <v>182</v>
+        <v>440</v>
+      </c>
+      <c r="C338" s="15">
+        <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="15">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C339" s="15">
-        <v>616</v>
+        <v>355</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="15">
-        <v>1588</v>
-      </c>
-      <c r="B340" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C340" s="15">
-        <v>355</v>
+      <c r="A340" s="17">
+        <v>1591</v>
+      </c>
+      <c r="B340" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C340" s="17">
+        <v>438</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="17">
-        <v>1591</v>
-      </c>
-      <c r="B341" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="C341" s="17">
-        <v>438</v>
+      <c r="A341" s="15">
+        <v>1592</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C341" s="15">
+        <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="15">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C342" s="15">
-        <v>343</v>
+        <v>242</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="15">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C343" s="15">
-        <v>242</v>
+        <v>445</v>
+      </c>
+      <c r="C343" s="17">
+        <v>197</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="15">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="C344" s="17">
-        <v>197</v>
+        <v>446</v>
+      </c>
+      <c r="C344" s="15">
+        <v>312</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="15">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C345" s="15">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="15">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C346" s="15">
-        <v>345</v>
+        <v>291</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="15">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="C347" s="15">
-        <v>291</v>
+        <v>449</v>
+      </c>
+      <c r="C347" s="17">
+        <v>42</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="15">
-        <v>1601</v>
-      </c>
-      <c r="B348" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C348" s="17">
-        <v>42</v>
+        <v>1602</v>
+      </c>
+      <c r="B348" s="16"/>
+      <c r="C348" s="15">
+        <v>264</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="15">
-        <v>1602</v>
-      </c>
-      <c r="B349" s="16"/>
+        <v>1603</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>450</v>
+      </c>
       <c r="C349" s="15">
-        <v>264</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="15">
-        <v>1603</v>
+        <v>160301</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C350" s="15">
         <v>405</v>
@@ -6751,263 +6882,263 @@
     </row>
     <row r="351" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="15">
-        <v>1603.01</v>
+        <v>1604</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C351" s="15">
-        <v>405</v>
+        <v>452</v>
+      </c>
+      <c r="C351" s="17">
+        <v>152</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="15">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="C352" s="17">
-        <v>152</v>
+        <v>453</v>
+      </c>
+      <c r="C352" s="15">
+        <v>287</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="15">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C353" s="15">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="15">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B354" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="C354" s="15">
-        <v>266</v>
+        <v>455</v>
+      </c>
+      <c r="C354" s="17">
+        <v>24</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="15">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C355" s="17">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="15">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B356" s="16" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C356" s="17">
-        <v>71</v>
+        <v>202</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="15">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="C357" s="17">
-        <v>202</v>
+        <v>159</v>
+      </c>
+      <c r="C357" s="15">
+        <v>509</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="15">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>159</v>
+        <v>458</v>
       </c>
       <c r="C358" s="15">
-        <v>509</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="15">
-        <v>1613</v>
-      </c>
-      <c r="B359" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="C359" s="15">
-        <v>268</v>
+      <c r="A359" s="17">
+        <v>1615</v>
+      </c>
+      <c r="B359" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C359" s="17" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="17">
-        <v>1615</v>
+        <v>161501</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>126</v>
+        <v>459</v>
       </c>
       <c r="C360" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="17">
-        <v>1615.01</v>
-      </c>
-      <c r="B361" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="C361" s="17" t="s">
-        <v>589</v>
+      <c r="A361" s="15">
+        <v>1618</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C361" s="17">
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="15">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B362" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="C362" s="17">
-        <v>112</v>
+        <v>461</v>
+      </c>
+      <c r="C362" s="15">
+        <v>347</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="15">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B363" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C363" s="15">
-        <v>347</v>
+        <v>245</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="15">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="B364" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C364" s="15">
-        <v>245</v>
+        <v>401</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="15">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B365" s="16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C365" s="15">
-        <v>401</v>
+        <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="15">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="C366" s="15">
-        <v>530</v>
+        <v>465</v>
+      </c>
+      <c r="C366" s="17">
+        <v>70</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="15">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C367" s="17">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B368" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="C368" s="17">
-        <v>39</v>
+        <v>467</v>
+      </c>
+      <c r="C368" s="15">
+        <v>254</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="15">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="C369" s="15">
-        <v>254</v>
+        <v>468</v>
+      </c>
+      <c r="C369" s="17">
+        <v>157</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="15">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B370" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C370" s="17">
-        <v>157</v>
+        <v>469</v>
+      </c>
+      <c r="C370" s="15">
+        <v>360</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="15">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="B371" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C371" s="15">
-        <v>360</v>
+        <v>262</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="15">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C372" s="15">
-        <v>262</v>
+        <v>471</v>
+      </c>
+      <c r="C372" s="17">
+        <v>186</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="15">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B373" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C373" s="17">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="15">
-        <v>1644</v>
+        <v>164401</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C374" s="17">
         <v>220</v>
@@ -7015,416 +7146,416 @@
     </row>
     <row r="375" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="15">
-        <v>1644.01</v>
+        <v>1645</v>
       </c>
       <c r="B375" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="C375" s="17">
-        <v>220</v>
+        <v>122</v>
+      </c>
+      <c r="C375" s="15">
+        <v>604</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="15">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B376" s="16" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C376" s="15">
-        <v>604</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="15">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C377" s="15">
-        <v>553</v>
+        <v>474</v>
+      </c>
+      <c r="C377" s="17">
+        <v>289</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="15">
-        <v>1648</v>
+        <v>164801</v>
       </c>
       <c r="B378" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C378" s="17">
-        <v>289</v>
+        <v>475</v>
+      </c>
+      <c r="C378" s="15">
+        <v>41</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="15">
-        <v>1648.01</v>
+        <v>1650</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C379" s="15">
-        <v>41</v>
+        <v>476</v>
+      </c>
+      <c r="C379" s="17">
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="15">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C380" s="17">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="15">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C381" s="17">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="C381" s="15">
+        <v>503</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="15">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C382" s="15">
-        <v>503</v>
+        <v>478</v>
+      </c>
+      <c r="C382" s="17">
+        <v>141</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="15">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C383" s="17">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="C383" s="15">
+        <v>531</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="15">
-        <v>1656</v>
-      </c>
-      <c r="B384" s="16" t="s">
-        <v>149</v>
-      </c>
+        <v>1659</v>
+      </c>
+      <c r="B384" s="16"/>
       <c r="C384" s="15">
-        <v>531</v>
+        <v>572</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="15">
-        <v>1659</v>
-      </c>
-      <c r="B385" s="16"/>
+        <v>1664</v>
+      </c>
+      <c r="B385" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="C385" s="15">
-        <v>572</v>
+        <v>505</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="15">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C386" s="15">
-        <v>505</v>
+        <v>552</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="15">
-        <v>1667</v>
-      </c>
-      <c r="B387" s="16" t="s">
-        <v>136</v>
-      </c>
+        <v>166801</v>
+      </c>
+      <c r="B387" s="16"/>
       <c r="C387" s="15">
-        <v>552</v>
+        <v>368</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="15">
-        <v>1668.1</v>
-      </c>
-      <c r="B388" s="16"/>
-      <c r="C388" s="15">
-        <v>368</v>
+        <v>1671</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C388" s="17">
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="15">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C389" s="17">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="C389" s="15">
+        <v>294</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="15">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C390" s="15">
-        <v>294</v>
+        <v>394</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="15">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C391" s="15">
-        <v>394</v>
+        <v>482</v>
+      </c>
+      <c r="C391" s="17">
+        <v>101</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="15">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C392" s="17">
-        <v>101</v>
+        <v>147</v>
+      </c>
+      <c r="C392" s="15">
+        <v>533</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="15">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="C393" s="15">
-        <v>533</v>
+        <v>408</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="15">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C394" s="15">
-        <v>408</v>
+        <v>484</v>
+      </c>
+      <c r="C394" s="17">
+        <v>175</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="15">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C395" s="17">
-        <v>175</v>
+        <v>485</v>
+      </c>
+      <c r="C395" s="15">
+        <v>344</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="15">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>485</v>
+        <v>141</v>
       </c>
       <c r="C396" s="15">
-        <v>344</v>
+        <v>552</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="15">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>141</v>
+        <v>486</v>
       </c>
       <c r="C397" s="15">
-        <v>552</v>
+        <v>286</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="15">
-        <v>1686</v>
-      </c>
-      <c r="B398" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="C398" s="15">
-        <v>286</v>
+      <c r="A398" s="17">
+        <v>1687</v>
+      </c>
+      <c r="B398" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C398" s="17">
+        <v>655</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="17">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B399" s="18" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="C399" s="17">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="17">
-        <v>1688</v>
+        <v>168801</v>
       </c>
       <c r="B400" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C400" s="17">
-        <v>636</v>
+        <v>487</v>
+      </c>
+      <c r="C400" s="17" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="17">
-        <v>1688.01</v>
-      </c>
-      <c r="B401" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C401" s="17" t="s">
-        <v>574</v>
+      <c r="A401" s="15">
+        <v>1690</v>
+      </c>
+      <c r="B401" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C401" s="15">
+        <v>501</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="15">
-        <v>1690</v>
-      </c>
-      <c r="B402" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="C402" s="15">
-        <v>501</v>
+      <c r="A402" s="17">
+        <v>1692</v>
+      </c>
+      <c r="B402" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C402" s="17">
+        <v>486</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="17">
-        <v>1692</v>
-      </c>
-      <c r="B403" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C403" s="17">
-        <v>486</v>
+      <c r="A403" s="15">
+        <v>1693</v>
+      </c>
+      <c r="B403" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C403" s="15">
+        <v>258</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="15">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C404" s="15">
-        <v>258</v>
+        <v>359</v>
+      </c>
+      <c r="C404" s="17">
+        <v>173</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="15">
-        <v>1694</v>
-      </c>
-      <c r="B405" s="16" t="s">
-        <v>359</v>
+      <c r="A405" s="17">
+        <v>1695</v>
+      </c>
+      <c r="B405" s="18" t="s">
+        <v>490</v>
       </c>
       <c r="C405" s="17">
-        <v>173</v>
+        <v>467</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="17">
-        <v>1695</v>
-      </c>
-      <c r="B406" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="C406" s="17">
-        <v>467</v>
+      <c r="A406" s="15">
+        <v>1696</v>
+      </c>
+      <c r="B406" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C406" s="15">
+        <v>624</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="15">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C407" s="15">
-        <v>624</v>
+        <v>491</v>
+      </c>
+      <c r="C407" s="17">
+        <v>199</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="15">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C408" s="17">
-        <v>199</v>
+        <v>492</v>
+      </c>
+      <c r="C408" s="15">
+        <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="15">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="C409" s="15">
-        <v>406</v>
+        <v>493</v>
+      </c>
+      <c r="C409" s="17">
+        <v>170</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="15">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="B410" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C410" s="17">
-        <v>170</v>
+        <v>150</v>
+      </c>
+      <c r="C410" s="15">
+        <v>556</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="15">
-        <v>1703</v>
+        <v>170301</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="C411" s="15">
-        <v>556</v>
+        <v>524</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="15">
-        <v>1703.01</v>
+        <v>1704</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C412" s="15">
-        <v>524</v>
+        <v>495</v>
+      </c>
+      <c r="C412" s="15" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7435,29 +7566,29 @@
         <v>495</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="15">
-        <v>1704</v>
-      </c>
-      <c r="B414" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="C414" s="15" t="s">
-        <v>590</v>
+      <c r="A414" s="17">
+        <v>1705</v>
+      </c>
+      <c r="B414" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C414" s="17">
+        <v>452</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="17">
-        <v>1705</v>
-      </c>
-      <c r="B415" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C415" s="17">
-        <v>452</v>
+      <c r="A415" s="15">
+        <v>1708</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C415" s="15">
+        <v>99</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7465,43 +7596,43 @@
         <v>1708</v>
       </c>
       <c r="B416" s="16" t="s">
-        <v>581</v>
+        <v>153</v>
       </c>
       <c r="C416" s="15">
-        <v>99</v>
+        <v>517</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="15">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B417" s="16" t="s">
-        <v>153</v>
+        <v>497</v>
       </c>
       <c r="C417" s="15">
-        <v>517</v>
+        <v>237</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="15">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B418" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="C418" s="15">
-        <v>237</v>
+        <v>498</v>
+      </c>
+      <c r="C418" s="17">
+        <v>40</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="15">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="C419" s="17">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="C419" s="15">
+        <v>514</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7509,767 +7640,767 @@
         <v>1714</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C420" s="15">
-        <v>514</v>
+        <v>579</v>
+      </c>
+      <c r="C420" s="15" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="15">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="C421" s="15" t="s">
-        <v>590</v>
+        <v>499</v>
+      </c>
+      <c r="C421" s="15">
+        <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="15">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C422" s="15">
-        <v>388</v>
+        <v>306</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="15">
-        <v>1717</v>
-      </c>
-      <c r="B423" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="C423" s="15">
-        <v>306</v>
+      <c r="A423" s="17">
+        <v>1718</v>
+      </c>
+      <c r="B423" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="C423" s="17">
+        <v>433</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="17">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B424" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C424" s="17">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="17">
-        <v>1719</v>
-      </c>
-      <c r="B425" s="18" t="s">
-        <v>502</v>
+      <c r="A425" s="15">
+        <v>1720</v>
+      </c>
+      <c r="B425" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="C425" s="17">
-        <v>465</v>
+        <v>25</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="15">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="B426" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="C426" s="17">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C426" s="15">
+        <v>300</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="15">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C427" s="15">
-        <v>300</v>
+        <v>504</v>
+      </c>
+      <c r="C427" s="17">
+        <v>150</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="15">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C428" s="17">
-        <v>150</v>
+        <v>354</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="15">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C429" s="17">
-        <v>354</v>
+        <v>137</v>
+      </c>
+      <c r="C429" s="15">
+        <v>603</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="15">
-        <v>1727</v>
-      </c>
-      <c r="B430" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C430" s="15">
-        <v>603</v>
+      <c r="A430" s="17">
+        <v>1731</v>
+      </c>
+      <c r="B430" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C430" s="17">
+        <v>610</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="17">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B431" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C431" s="17">
-        <v>610</v>
+        <v>507</v>
+      </c>
+      <c r="C431" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="17">
-        <v>1733</v>
-      </c>
-      <c r="B432" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="C432" s="17" t="s">
-        <v>508</v>
+      <c r="A432" s="15">
+        <v>1737</v>
+      </c>
+      <c r="B432" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C432" s="15">
+        <v>235</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="15">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C433" s="15">
-        <v>235</v>
+        <v>612</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="15">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C434" s="15">
-        <v>612</v>
+        <v>531</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="15">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C435" s="15">
-        <v>531</v>
+        <v>307</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="15">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="C436" s="15">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="15">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C437" s="15">
-        <v>305</v>
+        <v>116</v>
+      </c>
+      <c r="C437" s="17">
+        <v>133</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="15">
-        <v>1743</v>
-      </c>
-      <c r="B438" s="16" t="s">
-        <v>116</v>
+      <c r="A438" s="17">
+        <v>1744</v>
+      </c>
+      <c r="B438" s="18" t="s">
+        <v>511</v>
       </c>
       <c r="C438" s="17">
-        <v>133</v>
+        <v>455</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="17">
-        <v>1744</v>
+        <v>174401</v>
       </c>
       <c r="B439" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C439" s="17">
         <v>455</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="17">
-        <v>1744.01</v>
-      </c>
-      <c r="B440" s="18" t="s">
-        <v>510</v>
+      <c r="A440" s="15">
+        <v>1745</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="C440" s="17">
-        <v>455</v>
+        <v>322</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="15">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B441" s="16" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C441" s="17">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="15">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C442" s="17">
-        <v>348</v>
+        <v>514</v>
+      </c>
+      <c r="C442" s="15">
+        <v>390</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="15">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C443" s="15">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="15">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C444" s="15">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="15">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>513</v>
+        <v>151</v>
       </c>
       <c r="C445" s="15">
-        <v>386</v>
+        <v>520</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="15">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C446" s="15">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="C446" s="17">
+        <v>198</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="15">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="C447" s="17">
-        <v>198</v>
+        <v>517</v>
+      </c>
+      <c r="C447" s="15">
+        <v>269</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="15">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C448" s="15">
-        <v>269</v>
+        <v>364</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="15">
-        <v>1759</v>
+        <v>1763</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C449" s="15">
-        <v>364</v>
+        <v>218</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="15">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>519</v>
+        <v>158</v>
       </c>
       <c r="C450" s="15">
-        <v>218</v>
+        <v>510</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="15">
-        <v>1764</v>
-      </c>
-      <c r="B451" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C451" s="15">
-        <v>510</v>
+      <c r="A451" s="20">
+        <v>1766</v>
+      </c>
+      <c r="B451" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451" s="17">
+        <v>22</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="20">
-        <v>1766</v>
-      </c>
-      <c r="B452" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C452" s="17">
-        <v>22</v>
+      <c r="A452" s="15">
+        <v>1768</v>
+      </c>
+      <c r="B452" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C452" s="15">
+        <v>309</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="15">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="C453" s="15">
-        <v>309</v>
+        <v>521</v>
+      </c>
+      <c r="C453" s="17">
+        <v>138</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="15">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="C454" s="17">
-        <v>138</v>
+        <v>249</v>
+      </c>
+      <c r="C454" s="15">
+        <v>353</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="15">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="C455" s="15">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="15">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="C456" s="15">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="15">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="C457" s="15">
-        <v>468</v>
+        <v>524</v>
+      </c>
+      <c r="C457" s="17">
+        <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="15">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="C458" s="17">
-        <v>140</v>
+        <v>523</v>
+      </c>
+      <c r="C458" s="15">
+        <v>380</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="15">
-        <v>1774</v>
-      </c>
-      <c r="B459" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="C459" s="15">
-        <v>380</v>
+      <c r="A459" s="17">
+        <v>1775</v>
+      </c>
+      <c r="B459" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C459" s="17">
+        <v>472</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="17">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C460" s="17">
-        <v>472</v>
+        <v>154</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="17">
-        <v>1776</v>
-      </c>
-      <c r="B461" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="C461" s="17">
-        <v>154</v>
+      <c r="A461" s="15">
+        <v>1777</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C461" s="15">
+        <v>275</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="15">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C462" s="15">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="15">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>528</v>
+        <v>135</v>
       </c>
       <c r="C463" s="15">
-        <v>301</v>
+        <v>607</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="15">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C464" s="15">
-        <v>607</v>
+        <v>532</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="15">
-        <v>1780</v>
-      </c>
-      <c r="B465" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C465" s="15">
-        <v>532</v>
+      <c r="A465" s="17">
+        <v>1781</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C465" s="17">
+        <v>470</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="17">
-        <v>1781</v>
-      </c>
-      <c r="B466" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="C466" s="17">
-        <v>470</v>
+      <c r="A466" s="15">
+        <v>1782</v>
+      </c>
+      <c r="B466" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C466" s="15">
+        <v>381</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="15">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C467" s="15">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="15">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>531</v>
+        <v>143</v>
       </c>
       <c r="C468" s="15">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="15">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>143</v>
+        <v>532</v>
       </c>
       <c r="C469" s="15">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="15">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="C470" s="15">
-        <v>551</v>
+        <v>533</v>
+      </c>
+      <c r="C470" s="17">
+        <v>176</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="15">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C471" s="17">
-        <v>176</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="15">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C472" s="17">
-        <v>73</v>
+        <v>535</v>
+      </c>
+      <c r="C472" s="15">
+        <v>259</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="15">
-        <v>1788</v>
-      </c>
-      <c r="B473" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C473" s="15">
-        <v>259</v>
+      <c r="A473" s="17">
+        <v>1789</v>
+      </c>
+      <c r="B473" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C473" s="17">
+        <v>456</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="17">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>536</v>
+        <v>121</v>
       </c>
       <c r="C474" s="17">
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="17">
-        <v>1790</v>
-      </c>
-      <c r="B475" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C475" s="17">
-        <v>480</v>
+      <c r="A475" s="15">
+        <v>1791</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C475" s="15">
+        <v>656</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="15">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C476" s="15">
-        <v>656</v>
+        <v>537</v>
+      </c>
+      <c r="C476" s="17">
+        <v>53</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="15">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C477" s="17">
-        <v>53</v>
+        <v>201</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="15">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="C478" s="17">
-        <v>201</v>
+        <v>539</v>
+      </c>
+      <c r="C478" s="15">
+        <v>240</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="15">
-        <v>1795</v>
-      </c>
-      <c r="B479" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="C479" s="15">
-        <v>240</v>
+      <c r="A479" s="17">
+        <v>1796</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C479" s="17">
+        <v>462</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="17">
-        <v>1796</v>
-      </c>
-      <c r="B480" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="C480" s="17">
-        <v>462</v>
+      <c r="A480" s="15">
+        <v>1798</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C480" s="15">
+        <v>253</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="15">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B481" s="16" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C481" s="15">
-        <v>253</v>
+        <v>645</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="15">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C482" s="15">
-        <v>645</v>
+        <v>359</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="15">
-        <v>1800</v>
-      </c>
-      <c r="B483" s="16" t="s">
-        <v>543</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="B483" s="16"/>
       <c r="C483" s="15">
-        <v>359</v>
+        <v>119</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="15">
-        <v>1801</v>
-      </c>
-      <c r="B484" s="16"/>
+        <v>1802</v>
+      </c>
+      <c r="B484" s="16" t="s">
+        <v>544</v>
+      </c>
       <c r="C484" s="15">
-        <v>119</v>
+        <v>377</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="15">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="C485" s="15">
-        <v>377</v>
+        <v>545</v>
+      </c>
+      <c r="C485" s="17">
+        <v>137</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="15">
-        <v>1803</v>
+        <v>180301</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C486" s="17">
         <v>137</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="15">
-        <v>1803.01</v>
-      </c>
-      <c r="B487" s="16" t="s">
-        <v>546</v>
+      <c r="A487" s="17">
+        <v>1804</v>
+      </c>
+      <c r="B487" s="18" t="s">
+        <v>547</v>
       </c>
       <c r="C487" s="17">
-        <v>137</v>
+        <v>477</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="17">
-        <v>1804</v>
-      </c>
-      <c r="B488" s="18" t="s">
-        <v>547</v>
+      <c r="A488" s="15">
+        <v>1806</v>
+      </c>
+      <c r="B488" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="C488" s="17">
-        <v>477</v>
+        <v>37</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="15">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="C489" s="17">
-        <v>37</v>
+        <v>580</v>
+      </c>
+      <c r="C489" s="15">
+        <v>516</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8277,903 +8408,903 @@
         <v>1807</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C490" s="15">
-        <v>516</v>
+        <v>154</v>
+      </c>
+      <c r="C490" s="15" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="15">
-        <v>1807</v>
-      </c>
-      <c r="B491" s="16" t="s">
-        <v>154</v>
+      <c r="A491" s="20">
+        <v>1808</v>
+      </c>
+      <c r="B491" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="C491" s="15" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="20">
-        <v>1808</v>
-      </c>
-      <c r="B492" s="21" t="s">
-        <v>9</v>
+      <c r="A492" s="15">
+        <v>1809</v>
+      </c>
+      <c r="B492" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C492" s="15" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="15">
-        <v>1809</v>
-      </c>
-      <c r="B493" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C493" s="15" t="s">
-        <v>592</v>
+      <c r="A493" s="20">
+        <v>1810</v>
+      </c>
+      <c r="B493" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C493" s="15">
+        <v>471</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="20">
-        <v>1810</v>
-      </c>
-      <c r="B494" s="21" t="s">
-        <v>10</v>
+      <c r="A494" s="15">
+        <v>1811</v>
+      </c>
+      <c r="B494" s="16" t="s">
+        <v>549</v>
       </c>
       <c r="C494" s="15">
-        <v>471</v>
+        <v>252</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="15">
-        <v>1811</v>
-      </c>
-      <c r="B495" s="16" t="s">
-        <v>549</v>
-      </c>
+        <v>1812</v>
+      </c>
+      <c r="B495" s="16"/>
       <c r="C495" s="15">
-        <v>252</v>
+        <v>430</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="15">
         <v>1812</v>
       </c>
-      <c r="B496" s="16"/>
-      <c r="C496" s="15">
-        <v>430</v>
-      </c>
+      <c r="B496" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C496" s="15"/>
     </row>
     <row r="497" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="15">
-        <v>1812</v>
-      </c>
-      <c r="B497" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="C497" s="15"/>
+      <c r="A497" s="20">
+        <v>1813</v>
+      </c>
+      <c r="B497" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C497" s="15">
+        <v>481</v>
+      </c>
     </row>
     <row r="498" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="20">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B498" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C498" s="15">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="20">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B499" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C499" s="15">
-        <v>482</v>
+        <v>236</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="20">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B500" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C500" s="15">
-        <v>236</v>
+        <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="20">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B501" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C501" s="15">
-        <v>498</v>
+        <v>304</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="20">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B502" s="21" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C502" s="15">
-        <v>304</v>
+        <v>409</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="20">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B503" s="21" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C503" s="15">
-        <v>409</v>
+        <v>523</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="20">
-        <v>1821</v>
-      </c>
-      <c r="B504" s="21" t="s">
-        <v>16</v>
+      <c r="A504" s="15">
+        <v>1822</v>
+      </c>
+      <c r="B504" s="16" t="s">
+        <v>551</v>
       </c>
       <c r="C504" s="15">
-        <v>523</v>
+        <v>601</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="15">
-        <v>1822</v>
+        <v>182201</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="C505" s="15">
-        <v>601</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C505" s="15"/>
     </row>
     <row r="506" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="15">
-        <v>1822.01</v>
-      </c>
-      <c r="B506" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="C506" s="15"/>
+      <c r="A506" s="20">
+        <v>1823</v>
+      </c>
+      <c r="B506" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C506" s="15">
+        <v>457</v>
+      </c>
     </row>
     <row r="507" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="20">
-        <v>1823</v>
-      </c>
-      <c r="B507" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C507" s="15">
-        <v>457</v>
+      <c r="A507" s="17">
+        <v>1824</v>
+      </c>
+      <c r="B507" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C507" s="17">
+        <v>554</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="17">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B508" s="18" t="s">
-        <v>18</v>
+        <v>553</v>
       </c>
       <c r="C508" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="15">
+        <v>1826</v>
+      </c>
+      <c r="B509" s="16" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="17">
-        <v>1825</v>
-      </c>
-      <c r="B509" s="18" t="s">
-        <v>553</v>
-      </c>
       <c r="C509" s="17">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="15">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="C510" s="17">
-        <v>20</v>
+        <v>583</v>
+      </c>
+      <c r="C510" s="15">
+        <v>600</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="15">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="C511" s="15">
-        <v>600</v>
+        <v>555</v>
+      </c>
+      <c r="C511" s="15" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="15">
-        <v>1830</v>
-      </c>
-      <c r="B512" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="C512" s="15" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B512" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C512" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="17">
+        <v>1832</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C513" s="17">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="17">
+        <v>1834</v>
+      </c>
+      <c r="B514" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="C514" s="17">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="15">
+        <v>1835</v>
+      </c>
+      <c r="B515" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C515" s="15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="17">
+        <v>1836</v>
+      </c>
+      <c r="B516" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C516" s="17">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="17">
+        <v>1837</v>
+      </c>
+      <c r="B517" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C517" s="17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="15">
+        <v>1838</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C518" s="15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="15">
+        <v>1839</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C519" s="15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="17">
+        <v>1841</v>
+      </c>
+      <c r="B520" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C520" s="17">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="17">
+        <v>1842</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C521" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="15">
+        <v>1843</v>
+      </c>
+      <c r="B522" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C522" s="15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="17">
+        <v>1844</v>
+      </c>
+      <c r="B523" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C523" s="17">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="17">
+        <v>1845</v>
+      </c>
+      <c r="B524" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C524" s="17">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="17">
+        <v>1846</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C525" s="17">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="17">
+        <v>1847</v>
+      </c>
+      <c r="B526" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C526" s="17">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="17">
+        <v>1848</v>
+      </c>
+      <c r="B527" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C527" s="17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="17">
+        <v>1849</v>
+      </c>
+      <c r="B528" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C528" s="17">
+        <v>451</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="17">
+        <v>1850</v>
+      </c>
+      <c r="B529" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C529" s="17">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="17">
+        <v>1851</v>
+      </c>
+      <c r="B530" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C530" s="17">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="15">
+        <v>1852</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="C531" s="17">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="15">
+        <v>185201</v>
+      </c>
+      <c r="B532" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C532" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="17">
+        <v>1853</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C533" s="17">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="17">
+        <v>1854</v>
+      </c>
+      <c r="B534" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C534" s="17">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="17">
+        <v>1855</v>
+      </c>
+      <c r="B535" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C535" s="17">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="17">
+        <v>1856</v>
+      </c>
+      <c r="B536" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C536" s="17">
         <v>574</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="15">
-        <v>1831</v>
-      </c>
-      <c r="B513" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C513" s="17">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="17">
-        <v>1832</v>
-      </c>
-      <c r="B514" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C514" s="17">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="17">
-        <v>1834</v>
-      </c>
-      <c r="B515" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="C515" s="17">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="15">
-        <v>1835</v>
-      </c>
-      <c r="B516" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="C516" s="15">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="17">
-        <v>1836</v>
-      </c>
-      <c r="B517" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C517" s="17">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="17">
-        <v>1837</v>
-      </c>
-      <c r="B518" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C518" s="17">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="15">
-        <v>1838</v>
-      </c>
-      <c r="B519" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C519" s="15">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="15">
-        <v>1839</v>
-      </c>
-      <c r="B520" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C520" s="15">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="17">
-        <v>1841</v>
-      </c>
-      <c r="B521" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C521" s="17">
+    <row r="537" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="17">
+        <v>1857</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C537" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="17">
+        <v>1858</v>
+      </c>
+      <c r="B538" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C538" s="17">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="17">
+        <v>1860</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C539" s="17">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="17">
+        <v>186004</v>
+      </c>
+      <c r="B540" s="18" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="17">
-        <v>1842</v>
-      </c>
-      <c r="B522" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C522" s="17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="15">
-        <v>1843</v>
-      </c>
-      <c r="B523" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="C523" s="15">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="17">
-        <v>1844</v>
-      </c>
-      <c r="B524" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C524" s="17">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="17">
-        <v>1845</v>
-      </c>
-      <c r="B525" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C525" s="17">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="17">
-        <v>1846</v>
-      </c>
-      <c r="B526" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C526" s="17">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="17">
-        <v>1847</v>
-      </c>
-      <c r="B527" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C527" s="17">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="17">
-        <v>1848</v>
-      </c>
-      <c r="B528" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C528" s="17">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="17">
-        <v>1849</v>
-      </c>
-      <c r="B529" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C529" s="17">
-        <v>451</v>
-      </c>
-      <c r="D529" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="17">
-        <v>1850</v>
-      </c>
-      <c r="B530" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C530" s="17">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="17">
-        <v>1851</v>
-      </c>
-      <c r="B531" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C531" s="17">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="15">
-        <v>1852</v>
-      </c>
-      <c r="B532" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="C532" s="17">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="15">
-        <v>1852.1</v>
-      </c>
-      <c r="B533" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="C533" s="17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="17">
-        <v>1853</v>
-      </c>
-      <c r="B534" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C534" s="17">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="17">
-        <v>1854</v>
-      </c>
-      <c r="B535" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C535" s="17">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="17">
-        <v>1855</v>
-      </c>
-      <c r="B536" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C536" s="17">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="17">
-        <v>1856</v>
-      </c>
-      <c r="B537" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C537" s="17">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="17">
-        <v>1857</v>
-      </c>
-      <c r="B538" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C538" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="17">
-        <v>1858</v>
-      </c>
-      <c r="B539" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C539" s="17">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="17">
-        <v>1860</v>
-      </c>
-      <c r="B540" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="C540" s="17">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="17">
-        <v>1860.04</v>
+        <v>186005</v>
       </c>
       <c r="B541" s="18" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C541" s="17">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="17">
-        <v>1860.05</v>
-      </c>
-      <c r="B542" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="C542" s="17">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1861</v>
+      </c>
+      <c r="B542" s="18"/>
+      <c r="C542" s="17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="17">
-        <v>1861</v>
-      </c>
-      <c r="B543" s="18"/>
-      <c r="C543" s="17" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1862</v>
+      </c>
+      <c r="B543" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C543" s="17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="17">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B544" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C544" s="17">
-        <v>449</v>
+        <v>526</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="17">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B545" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C545" s="17">
-        <v>526</v>
+        <v>450</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="17">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B546" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C546" s="17">
-        <v>450</v>
+        <v>43</v>
+      </c>
+      <c r="C546" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="17">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B547" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C547" s="15">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C547" s="17">
+        <v>576</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="17">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B548" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C548" s="17">
-        <v>576</v>
+        <v>645</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="17">
-        <v>1867</v>
-      </c>
-      <c r="B549" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C549" s="17">
-        <v>645</v>
+      <c r="A549" s="15">
+        <v>1869</v>
+      </c>
+      <c r="B549" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C549" s="15">
+        <v>655</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="15">
-        <v>1869</v>
-      </c>
-      <c r="B550" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C550" s="15">
-        <v>655</v>
+      <c r="A550" s="17">
+        <v>1870</v>
+      </c>
+      <c r="B550" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C550" s="17">
+        <v>570</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="17">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B551" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C551" s="17">
-        <v>570</v>
+        <v>648</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="17">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B552" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C552" s="17">
-        <v>648</v>
+        <v>48</v>
+      </c>
+      <c r="C552" s="17" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="17">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B553" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C553" s="17" t="s">
-        <v>593</v>
+        <v>49</v>
+      </c>
+      <c r="C553" s="17">
+        <v>561</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="17">
-        <v>1873</v>
-      </c>
-      <c r="B554" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C554" s="17">
-        <v>561</v>
+      <c r="A554" s="15">
+        <v>1874</v>
+      </c>
+      <c r="B554" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C554" s="15">
+        <v>597</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="15">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B555" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C555" s="15">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="15">
-        <v>1875</v>
-      </c>
-      <c r="B556" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C556" s="15">
-        <v>590</v>
+      <c r="A556" s="17">
+        <v>1876</v>
+      </c>
+      <c r="B556" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C556" s="17">
+        <v>556</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="17">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B557" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C557" s="17">
-        <v>556</v>
+        <v>102</v>
+      </c>
+      <c r="C557" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="17">
         <v>1877</v>
       </c>
-      <c r="B558" s="18" t="s">
-        <v>102</v>
-      </c>
+      <c r="B558" s="18"/>
       <c r="C558" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="17">
-        <v>1877</v>
-      </c>
-      <c r="B559" s="18"/>
-      <c r="C559" s="17" t="s">
-        <v>590</v>
+        <v>187701</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C559" s="17">
+        <v>567</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="17">
-        <v>1877.1</v>
+        <v>1878</v>
       </c>
       <c r="B560" s="18" t="s">
-        <v>572</v>
+        <v>51</v>
       </c>
       <c r="C560" s="17">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="17">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C561" s="17">
-        <v>560</v>
+        <v>593</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="17">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C562" s="17">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="17">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C563" s="17">
-        <v>594</v>
+        <v>565</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="17">
-        <v>1881</v>
-      </c>
-      <c r="B564" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C564" s="17">
-        <v>565</v>
+      <c r="A564" s="15">
+        <v>1882</v>
+      </c>
+      <c r="B564" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C564" s="15">
+        <v>647</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="15">
-        <v>1882</v>
-      </c>
-      <c r="B565" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C565" s="15">
-        <v>647</v>
+      <c r="A565" s="17">
+        <v>1883</v>
+      </c>
+      <c r="B565" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C565" s="17">
+        <v>555</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="17">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C566" s="17">
-        <v>555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="17">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>56</v>
+        <v>560</v>
       </c>
       <c r="C567" s="17">
-        <v>578</v>
+        <v>460</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="17">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>560</v>
+        <v>57</v>
       </c>
       <c r="C568" s="17">
-        <v>460</v>
+        <v>528</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="17">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C569" s="17">
-        <v>528</v>
+        <v>573</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="17">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C570" s="17">
-        <v>573</v>
+        <v>319</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="17">
-        <v>1888</v>
-      </c>
-      <c r="B571" s="18" t="s">
-        <v>59</v>
-      </c>
+        <v>1889</v>
+      </c>
+      <c r="B571" s="18"/>
       <c r="C571" s="17">
-        <v>319</v>
+        <v>548</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="17">
-        <v>1889</v>
-      </c>
-      <c r="B572" s="18"/>
+        <v>1890</v>
+      </c>
+      <c r="B572" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="C572" s="17">
-        <v>548</v>
+        <v>457</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9181,7 +9312,7 @@
         <v>1890</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C573" s="17">
         <v>457</v>
@@ -9189,240 +9320,240 @@
     </row>
     <row r="574" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="17">
-        <v>1890</v>
-      </c>
-      <c r="B574" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C574" s="17">
-        <v>457</v>
+        <v>1891</v>
+      </c>
+      <c r="B574" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C574" s="23">
+        <v>207</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="17">
-        <v>1891</v>
-      </c>
-      <c r="B575" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="C575" s="23">
-        <v>207</v>
+        <v>1892</v>
+      </c>
+      <c r="B575" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C575" s="17">
+        <v>587</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="17">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B576" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C576" s="17">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="17">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B577" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C577" s="17">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="17">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B578" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C578" s="17">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="17">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B579" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C579" s="17">
-        <v>592</v>
+        <v>134</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="17">
-        <v>1896</v>
-      </c>
-      <c r="B580" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C580" s="17">
-        <v>134</v>
+      <c r="A580" s="15">
+        <v>1897</v>
+      </c>
+      <c r="B580" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C580" s="15">
+        <v>602</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="15">
-        <v>1897</v>
+        <v>189701</v>
       </c>
       <c r="B581" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C581" s="15">
-        <v>602</v>
+        <v>578</v>
+      </c>
+      <c r="C581" s="17">
+        <v>69</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
-        <v>1897.1</v>
+        <v>1897</v>
       </c>
       <c r="B582" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="C582" s="17">
-        <v>69</v>
+        <v>601</v>
+      </c>
+      <c r="C582" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="15">
-        <v>1897</v>
-      </c>
-      <c r="B583" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="C583" s="17" t="s">
-        <v>590</v>
+        <v>1898</v>
+      </c>
+      <c r="B583" s="16"/>
+      <c r="C583" s="15" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="15">
-        <v>1898</v>
-      </c>
-      <c r="B584" s="16"/>
-      <c r="C584" s="15" t="s">
-        <v>590</v>
+      <c r="A584" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B584" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C584" s="15">
+        <v>637</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="15" t="s">
-        <v>177</v>
+      <c r="A585" s="15">
+        <v>1899</v>
       </c>
       <c r="B585" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C585" s="15">
-        <v>637</v>
+        <v>562</v>
+      </c>
+      <c r="C585" s="15" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="15">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="C586" s="15" t="s">
-        <v>594</v>
+        <v>585</v>
+      </c>
+      <c r="C586" s="15">
+        <v>654</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="15">
-        <v>1900</v>
-      </c>
-      <c r="B587" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="C587" s="15">
-        <v>654</v>
+      <c r="A587" s="17">
+        <v>1901</v>
+      </c>
+      <c r="B587" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C587" s="17">
+        <v>622</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="17">
-        <v>1901</v>
-      </c>
-      <c r="B588" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C588" s="17">
-        <v>622</v>
+      <c r="A588" s="15">
+        <v>1903</v>
+      </c>
+      <c r="B588" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C588" s="15">
+        <v>615</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="15">
-        <v>1903</v>
-      </c>
-      <c r="B589" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C589" s="15">
-        <v>615</v>
+        <v>1904</v>
+      </c>
+      <c r="B589" s="16"/>
+      <c r="C589" s="17">
+        <v>583</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="15">
-        <v>1904</v>
-      </c>
-      <c r="B590" s="16"/>
-      <c r="C590" s="17">
-        <v>583</v>
+      <c r="A590" s="17">
+        <v>1905</v>
+      </c>
+      <c r="B590" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C590" s="17" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="17">
-        <v>1905</v>
+        <v>19050101</v>
       </c>
       <c r="B591" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C591" s="17" t="s">
-        <v>595</v>
+        <v>582</v>
+      </c>
+      <c r="C591" s="17">
+        <v>561</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="17" t="s">
-        <v>582</v>
+      <c r="A592" s="17">
+        <v>1906</v>
       </c>
       <c r="B592" s="18" t="s">
-        <v>583</v>
+        <v>69</v>
       </c>
       <c r="C592" s="17">
-        <v>561</v>
+        <v>628</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="17">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B593" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C593" s="17">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="17">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B594" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C594" s="17">
-        <v>617</v>
+        <v>641</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="17">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B595" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C595" s="17">
-        <v>641</v>
+        <v>569</v>
+      </c>
+      <c r="C595" s="17" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9430,261 +9561,261 @@
         <v>1909</v>
       </c>
       <c r="B596" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="C596" s="17" t="s">
-        <v>596</v>
+        <v>72</v>
+      </c>
+      <c r="C596" s="17">
+        <v>618</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="17">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B597" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C597" s="17">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="17">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B598" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C598" s="17">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="17">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B599" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C599" s="17">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="17">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B600" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C600" s="17">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="17">
-        <v>1913</v>
-      </c>
-      <c r="B601" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C601" s="17">
-        <v>613</v>
+      <c r="A601" s="15">
+        <v>1914</v>
+      </c>
+      <c r="B601" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C601" s="15">
+        <v>629</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="15">
-        <v>1914</v>
-      </c>
-      <c r="B602" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C602" s="15">
-        <v>629</v>
+      <c r="A602" s="17">
+        <v>1915</v>
+      </c>
+      <c r="B602" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C602" s="17">
+        <v>642</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="17">
-        <v>1915</v>
-      </c>
-      <c r="B603" s="18" t="s">
-        <v>77</v>
+        <v>1917</v>
+      </c>
+      <c r="B603" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="C603" s="17">
-        <v>642</v>
+        <v>620</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="17">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B604" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C604" s="17">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="17">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B605" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C605" s="17">
-        <v>631</v>
+        <v>608</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="17">
-        <v>1919</v>
-      </c>
-      <c r="B606" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C606" s="17">
-        <v>608</v>
+        <v>1920</v>
+      </c>
+      <c r="B606" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C606" s="23">
+        <v>627</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="17">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B607" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C607" s="23">
-        <v>627</v>
+        <v>82</v>
+      </c>
+      <c r="C607" s="17">
+        <v>488</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="17">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B608" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C608" s="17">
-        <v>488</v>
+        <v>83</v>
+      </c>
+      <c r="C608" s="23">
+        <v>621</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="17">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B609" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C609" s="23">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="17">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B610" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C610" s="23">
-        <v>634</v>
+        <v>103</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="17">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B611" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C611" s="23">
-        <v>103</v>
+        <v>588</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="17">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B612" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C612" s="23">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="17">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B613" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C613" s="23">
-        <v>598</v>
+        <v>393</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="17">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B614" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C614" s="23">
-        <v>393</v>
+        <v>649</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="17">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B615" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C615" s="23">
-        <v>649</v>
+        <v>571</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="17">
-        <v>1930</v>
-      </c>
-      <c r="B616" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C616" s="23">
-        <v>571</v>
+        <v>1931</v>
+      </c>
+      <c r="B616" s="22"/>
+      <c r="C616" s="23" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="17">
-        <v>1931</v>
-      </c>
-      <c r="B617" s="22"/>
-      <c r="C617" s="23" t="s">
-        <v>576</v>
+        <v>1932</v>
+      </c>
+      <c r="B617" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C617" s="23">
+        <v>549</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="17">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B618" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C618" s="23">
-        <v>549</v>
+        <v>581</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="17">
-        <v>1933</v>
-      </c>
-      <c r="B619" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C619" s="23">
-        <v>581</v>
+      <c r="A619" s="15">
+        <v>1934</v>
+      </c>
+      <c r="B619" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C619" s="17">
+        <v>96</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9692,218 +9823,216 @@
         <v>1934</v>
       </c>
       <c r="B620" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="C620" s="17">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="C620" s="15">
+        <v>657</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="15">
-        <v>1934</v>
-      </c>
-      <c r="B621" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C621" s="15">
-        <v>657</v>
+      <c r="A621" s="17">
+        <v>1935</v>
+      </c>
+      <c r="B621" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C621" s="23">
+        <v>6</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="17">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B622" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C622" s="23">
-        <v>6</v>
+        <v>318</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="17">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B623" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C623" s="23">
-        <v>318</v>
+        <v>646</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="17">
-        <v>1937</v>
-      </c>
-      <c r="B624" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C624" s="23">
-        <v>646</v>
+      <c r="A624" s="15">
+        <v>1938</v>
+      </c>
+      <c r="B624" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C624" s="15">
+        <v>614</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="15">
-        <v>1938</v>
-      </c>
-      <c r="B625" s="16" t="s">
-        <v>564</v>
-      </c>
+        <v>1939</v>
+      </c>
+      <c r="B625" s="16"/>
       <c r="C625" s="15">
-        <v>614</v>
+        <v>584</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="15">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B626" s="16"/>
       <c r="C626" s="15">
-        <v>584</v>
+        <v>639</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="15">
-        <v>1940</v>
-      </c>
-      <c r="B627" s="16"/>
-      <c r="C627" s="15">
-        <v>639</v>
+      <c r="A627" s="17">
+        <v>1941</v>
+      </c>
+      <c r="B627" s="18"/>
+      <c r="C627" s="17">
+        <v>562</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="17">
-        <v>1941</v>
-      </c>
-      <c r="B628" s="18"/>
-      <c r="C628" s="17">
-        <v>562</v>
+      <c r="A628" s="15">
+        <v>1942</v>
+      </c>
+      <c r="B628" s="16"/>
+      <c r="C628" s="15">
+        <v>640</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="15">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B629" s="16"/>
       <c r="C629" s="15">
-        <v>640</v>
+        <v>522</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="15">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B630" s="16"/>
       <c r="C630" s="15">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="15">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B631" s="16"/>
       <c r="C631" s="15">
-        <v>519</v>
+        <v>605</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="15">
-        <v>1945</v>
+        <v>194501</v>
       </c>
       <c r="B632" s="16"/>
       <c r="C632" s="15">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="15">
-        <v>1945.1</v>
+        <v>1946</v>
       </c>
       <c r="B633" s="16"/>
       <c r="C633" s="15">
-        <v>599</v>
+        <v>638</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="15">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B634" s="16"/>
       <c r="C634" s="15">
-        <v>638</v>
+        <v>520</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="15">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B635" s="16"/>
       <c r="C635" s="15">
-        <v>520</v>
+        <v>602</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="15">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B636" s="16"/>
       <c r="C636" s="15">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="15">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B637" s="16"/>
       <c r="C637" s="15">
-        <v>590</v>
+        <v>559</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="15">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B638" s="16"/>
-      <c r="C638" s="15">
-        <v>559</v>
+      <c r="C638" s="15" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="15">
-        <v>1954</v>
-      </c>
-      <c r="B639" s="16"/>
-      <c r="C639" s="15" t="s">
-        <v>597</v>
+      <c r="A639" s="17">
+        <v>1955</v>
+      </c>
+      <c r="B639" s="18"/>
+      <c r="C639" s="15">
+        <v>553</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="17">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B640" s="18"/>
-      <c r="C640" s="15">
-        <v>553</v>
+      <c r="C640" s="17">
+        <v>459</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="17">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B641" s="18"/>
       <c r="C641" s="17">
-        <v>459</v>
+        <v>635</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="17">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B642" s="18"/>
-      <c r="C642" s="17">
-        <v>635</v>
+      <c r="C642" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9911,17 +10040,19 @@
         <v>1960</v>
       </c>
       <c r="B643" s="18"/>
-      <c r="C643" s="17" t="s">
-        <v>590</v>
+      <c r="C643" s="17">
+        <v>601</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="17">
-        <v>1960</v>
-      </c>
-      <c r="B644" s="18"/>
+        <v>1961</v>
+      </c>
+      <c r="B644" s="18" t="s">
+        <v>577</v>
+      </c>
       <c r="C644" s="17">
-        <v>601</v>
+        <v>105</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9929,21 +10060,19 @@
         <v>1961</v>
       </c>
       <c r="B645" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C645" s="17">
-        <v>105</v>
+        <v>641</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="17">
-        <v>1961</v>
-      </c>
-      <c r="B646" s="18" t="s">
-        <v>575</v>
-      </c>
+      <c r="A646" s="15">
+        <v>1962</v>
+      </c>
+      <c r="B646" s="16"/>
       <c r="C646" s="17">
-        <v>641</v>
+        <v>543</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9952,332 +10081,328 @@
       </c>
       <c r="B647" s="16"/>
       <c r="C647" s="17">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="15">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B648" s="16"/>
-      <c r="C648" s="17">
-        <v>544</v>
+      <c r="C648" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="15">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B649" s="16"/>
-      <c r="C649" s="17" t="s">
-        <v>590</v>
+      <c r="C649" s="17">
+        <v>577</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="15">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B650" s="16"/>
       <c r="C650" s="17">
-        <v>577</v>
+        <v>473</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="15">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B651" s="16"/>
-      <c r="C651" s="17">
-        <v>473</v>
+      <c r="C651" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="15">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B652" s="16"/>
-      <c r="C652" s="17" t="s">
-        <v>590</v>
+      <c r="C652" s="17">
+        <v>658</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="15">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B653" s="16"/>
       <c r="C653" s="17">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="15">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B654" s="16"/>
-      <c r="C654" s="17">
-        <v>644</v>
+      <c r="C654" s="17" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="15">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B655" s="16"/>
-      <c r="C655" s="17" t="s">
-        <v>600</v>
+      <c r="C655" s="17">
+        <v>547</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="15">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="B656" s="16"/>
       <c r="C656" s="17">
-        <v>547</v>
+        <v>652</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="15">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B657" s="16"/>
-      <c r="C657" s="17">
-        <v>652</v>
+      <c r="C657" s="26" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="15">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B658" s="16"/>
       <c r="C658" s="26" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="15">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B659" s="16"/>
-      <c r="C659" s="26" t="s">
-        <v>603</v>
+      <c r="C659" s="26">
+        <v>653</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="15">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="B660" s="16"/>
-      <c r="C660" s="26">
-        <v>653</v>
+      <c r="C660" s="26" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="15">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B661" s="16"/>
-      <c r="C661" s="26" t="s">
-        <v>590</v>
+      <c r="C661" s="26">
+        <v>550</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="15">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B662" s="16"/>
       <c r="C662" s="26">
-        <v>550</v>
+        <v>483</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="15">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="B663" s="16"/>
-      <c r="C663" s="26">
-        <v>483</v>
+      <c r="C663" s="26" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="15">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B664" s="16"/>
-      <c r="C664" s="26" t="s">
-        <v>590</v>
+      <c r="C664" s="26">
+        <v>551</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="15">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="B665" s="16"/>
       <c r="C665" s="26">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="15">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B666" s="16"/>
-      <c r="C666" s="26">
-        <v>554</v>
+      <c r="C666" s="26" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="15">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B667" s="16"/>
-      <c r="C667" s="26" t="s">
-        <v>601</v>
+      <c r="C667" s="15" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="668" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="15">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B668" s="16"/>
-      <c r="C668" s="15" t="s">
-        <v>590</v>
+      <c r="C668" s="15">
+        <v>656</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="15">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="B669" s="16"/>
-      <c r="C669" s="15">
-        <v>656</v>
+      <c r="C669" s="15" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="670" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="15">
-        <v>1989</v>
-      </c>
-      <c r="B670" s="16"/>
-      <c r="C670" s="15" t="s">
-        <v>590</v>
+      <c r="A670" s="17">
+        <v>1991</v>
+      </c>
+      <c r="B670" s="22"/>
+      <c r="C670" s="23" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="17">
-        <v>1991</v>
-      </c>
-      <c r="B671" s="22"/>
-      <c r="C671" s="23" t="s">
-        <v>590</v>
+      <c r="A671" s="15">
+        <v>1992</v>
+      </c>
+      <c r="B671" s="16"/>
+      <c r="C671" s="17" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="15">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B672" s="16"/>
       <c r="C672" s="17" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B673" s="16"/>
-      <c r="C673" s="17" t="s">
-        <v>598</v>
+      <c r="C673" s="17">
+        <v>479</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="15">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B674" s="16"/>
       <c r="C674" s="17">
-        <v>479</v>
+        <v>626</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="15">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="B675" s="16"/>
       <c r="C675" s="17">
-        <v>626</v>
+        <v>485</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="15">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B676" s="16"/>
-      <c r="C676" s="17">
-        <v>485</v>
+      <c r="C676" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="15">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B677" s="16"/>
       <c r="C677" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="15">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B678" s="16"/>
       <c r="C678" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B679" s="16"/>
       <c r="C679" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B680" s="16"/>
       <c r="C680" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B681" s="16"/>
-      <c r="C681" s="17" t="s">
-        <v>590</v>
+      <c r="C681" s="17">
+        <v>530</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="15">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B682" s="16"/>
-      <c r="C682" s="17">
-        <v>530</v>
+      <c r="C682" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="15">
-        <v>2015</v>
-      </c>
-      <c r="B683" s="16"/>
-      <c r="C683" s="17" t="s">
-        <v>590</v>
-      </c>
+      <c r="A683" s="6"/>
+      <c r="B683" s="13"/>
+      <c r="C683" s="6"/>
     </row>
     <row r="684" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="6"/>
@@ -10704,7 +10829,7 @@
       <c r="B768" s="13"/>
       <c r="C768" s="6"/>
     </row>
-    <row r="769" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="6"/>
       <c r="B769" s="13"/>
       <c r="C769" s="6"/>
@@ -10729,7 +10854,7 @@
       <c r="B773" s="13"/>
       <c r="C773" s="6"/>
     </row>
-    <row r="774" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="6"/>
       <c r="B774" s="13"/>
       <c r="C774" s="6"/>
@@ -11139,11 +11264,7 @@
       <c r="B855" s="13"/>
       <c r="C855" s="6"/>
     </row>
-    <row r="856" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A856" s="6"/>
-      <c r="B856" s="13"/>
-      <c r="C856" s="6"/>
-    </row>
+    <row r="856" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="857" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="858" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="859" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11262,9 +11383,8 @@
     <row r="972" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="973" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="974" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A6:C683"/>
+  <autoFilter ref="A6:C682" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:C4"/>
